--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -9096,7 +9096,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="4" t="n"/>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>ESTO ES UNA PRUEBA</t>
+        </is>
+      </c>
       <c r="C50" s="10" t="n"/>
       <c r="D50" s="9" t="n"/>
       <c r="E50" s="9" t="n"/>
@@ -33055,8 +33059,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -1688,7 +1688,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="7" customWidth="1" style="74" min="1" max="1"/>
     <col width="11.6640625" customWidth="1" style="74" min="2" max="2"/>
@@ -2631,7 +2631,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="5.5" customWidth="1" style="74" min="1" max="1"/>
     <col width="7" customWidth="1" style="74" min="2" max="2"/>
@@ -34538,8 +34538,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34832,8 +34832,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34831,8 +34831,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34831,9 +34831,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -2987,11 +2987,11 @@
       </c>
       <c r="F6" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G6" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="16" t="n"/>
       <c r="I6" s="123" t="n">
@@ -3281,11 +3281,11 @@
       </c>
       <c r="F8" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G8" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" s="16" t="n"/>
       <c r="I8" s="123" t="n">
@@ -3728,11 +3728,11 @@
       </c>
       <c r="F11" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G11" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="16" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="F12" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G12" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="17" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4169,11 +4169,11 @@
       </c>
       <c r="F14" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G14" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="17" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4469,11 +4469,11 @@
       </c>
       <c r="F16" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G16" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="17" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4622,11 +4622,11 @@
       </c>
       <c r="F17" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G17" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="17" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4771,11 +4771,11 @@
       </c>
       <c r="F18" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G18" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" s="16" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4918,11 +4918,11 @@
       </c>
       <c r="F19" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G19" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="17" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5065,11 +5065,11 @@
       </c>
       <c r="F20" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G20" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" s="17" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5214,11 +5214,11 @@
       </c>
       <c r="F21" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G21" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="16" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5367,11 +5367,11 @@
       </c>
       <c r="F22" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G22" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="17" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5514,11 +5514,11 @@
       </c>
       <c r="F23" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G23" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="17" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5669,11 +5669,11 @@
       </c>
       <c r="F24" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G24" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" s="16" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5824,11 +5824,11 @@
       </c>
       <c r="F25" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G25" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" s="17" t="n"/>
       <c r="I25" s="123" t="n">
@@ -5973,11 +5973,11 @@
       </c>
       <c r="F26" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G26" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" s="17" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6126,11 +6126,11 @@
       </c>
       <c r="F27" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G27" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" s="16" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6279,11 +6279,11 @@
       </c>
       <c r="F28" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G28" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" s="17" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6581,11 +6581,11 @@
       </c>
       <c r="F30" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G30" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" s="16" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6736,11 +6736,11 @@
       </c>
       <c r="F31" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G31" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" s="17" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6891,11 +6891,11 @@
       </c>
       <c r="F32" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G32" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" s="17" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7200,11 +7200,11 @@
       </c>
       <c r="F34" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G34" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" s="17" t="n"/>
       <c r="I34" s="123" t="n">
@@ -7503,11 +7503,11 @@
       </c>
       <c r="F36" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G36" s="59" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" s="16" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7654,11 +7654,11 @@
       </c>
       <c r="F37" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G37" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" s="17" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7803,11 +7803,11 @@
       </c>
       <c r="F38" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G38" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" s="17" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7952,11 +7952,11 @@
       </c>
       <c r="F39" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G39" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" s="16" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8099,11 +8099,11 @@
       </c>
       <c r="F40" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G40" s="9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" s="17" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8397,11 +8397,11 @@
       </c>
       <c r="F42" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G42" s="9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42" s="16" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8856,11 +8856,11 @@
       </c>
       <c r="F45" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G45" s="9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H45" s="16" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9005,11 +9005,11 @@
       </c>
       <c r="F46" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G46" s="9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H46" s="17" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9154,11 +9154,11 @@
       </c>
       <c r="F47" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G47" s="9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H47" s="17" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9613,11 +9613,11 @@
       </c>
       <c r="F50" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G50" s="9" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50" s="17" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9768,11 +9768,11 @@
       </c>
       <c r="F51" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G51" s="9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51" s="17" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10071,11 +10071,11 @@
       </c>
       <c r="F53" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G53" s="9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H53" s="17" t="n"/>
       <c r="I53" s="123" t="n">
@@ -10220,11 +10220,11 @@
       </c>
       <c r="F54" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G54" s="9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H54" s="17" t="n"/>
       <c r="I54" s="123" t="n">
@@ -10369,11 +10369,11 @@
       </c>
       <c r="F55" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G55" s="9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H55" s="16" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10518,11 +10518,11 @@
       </c>
       <c r="F56" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G56" s="9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H56" s="17" t="n"/>
       <c r="I56" s="123" t="n">
@@ -10821,11 +10821,11 @@
       </c>
       <c r="F58" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G58" s="9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H58" s="16" t="n"/>
       <c r="I58" s="123" t="n">
@@ -10968,11 +10968,11 @@
       </c>
       <c r="F59" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G59" s="9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H59" s="17" t="n"/>
       <c r="I59" s="123" t="n">
@@ -11117,11 +11117,11 @@
       </c>
       <c r="F60" s="10" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2024-11-09</t>
         </is>
       </c>
       <c r="G60" s="9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60" s="17" t="n"/>
       <c r="I60" s="123" t="n">
@@ -34831,9 +34831,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34935,8 +34935,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34935,9 +34935,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34936,8 +34936,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34864,8 +34864,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34864,9 +34864,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34865,8 +34865,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34968,9 +34968,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34969,8 +34969,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34968,8 +34968,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34913,8 +34913,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34913,9 +34913,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -34914,8 +34914,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -23,7 +23,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -239,6 +239,13 @@
     </font>
     <font>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="10"/>
       <sz val="12"/>
@@ -483,13 +490,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -774,12 +782,14 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="0"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -3281,11 +3291,11 @@
       </c>
       <c r="F8" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G8" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" s="17" t="n"/>
       <c r="I8" s="122" t="n">
@@ -3728,11 +3738,11 @@
       </c>
       <c r="F11" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G11" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="17" t="n"/>
       <c r="I11" s="122" t="n">
@@ -3875,11 +3885,11 @@
       </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G12" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" s="18" t="n"/>
       <c r="I12" s="122" t="n">
@@ -4169,11 +4179,11 @@
       </c>
       <c r="F14" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G14" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="18" t="n"/>
       <c r="I14" s="122" t="n">
@@ -4469,11 +4479,11 @@
       </c>
       <c r="F16" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G16" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" s="18" t="n"/>
       <c r="I16" s="122" t="n">
@@ -4622,11 +4632,11 @@
       </c>
       <c r="F17" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G17" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H17" s="18" t="n"/>
       <c r="I17" s="122" t="n">
@@ -4771,11 +4781,11 @@
       </c>
       <c r="F18" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G18" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H18" s="17" t="n"/>
       <c r="I18" s="122" t="n">
@@ -4918,11 +4928,11 @@
       </c>
       <c r="F19" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G19" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" s="18" t="n"/>
       <c r="I19" s="122" t="n">
@@ -5065,11 +5075,11 @@
       </c>
       <c r="F20" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G20" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" s="18" t="n"/>
       <c r="I20" s="122" t="n">
@@ -5214,11 +5224,11 @@
       </c>
       <c r="F21" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G21" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="17" t="n"/>
       <c r="I21" s="122" t="n">
@@ -5367,11 +5377,11 @@
       </c>
       <c r="F22" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G22" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H22" s="18" t="n"/>
       <c r="I22" s="122" t="n">
@@ -5514,11 +5524,11 @@
       </c>
       <c r="F23" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G23" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H23" s="18" t="n"/>
       <c r="I23" s="122" t="n">
@@ -5669,11 +5679,11 @@
       </c>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G24" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" s="17" t="n"/>
       <c r="I24" s="122" t="n">
@@ -5824,11 +5834,11 @@
       </c>
       <c r="F25" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G25" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H25" s="18" t="n"/>
       <c r="I25" s="122" t="n">
@@ -5973,11 +5983,11 @@
       </c>
       <c r="F26" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G26" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" s="18" t="n"/>
       <c r="I26" s="122" t="n">
@@ -6126,11 +6136,11 @@
       </c>
       <c r="F27" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G27" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27" s="17" t="n"/>
       <c r="I27" s="122" t="n">
@@ -6279,11 +6289,11 @@
       </c>
       <c r="F28" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G28" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H28" s="18" t="n"/>
       <c r="I28" s="122" t="n">
@@ -6581,11 +6591,11 @@
       </c>
       <c r="F30" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G30" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H30" s="17" t="n"/>
       <c r="I30" s="122" t="n">
@@ -6736,11 +6746,11 @@
       </c>
       <c r="F31" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G31" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H31" s="18" t="n"/>
       <c r="I31" s="122" t="n">
@@ -6891,11 +6901,11 @@
       </c>
       <c r="F32" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G32" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" s="18" t="n"/>
       <c r="I32" s="122" t="n">
@@ -7503,11 +7513,11 @@
       </c>
       <c r="F36" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G36" s="59" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H36" s="17" t="n"/>
       <c r="I36" s="122" t="n">
@@ -7654,11 +7664,11 @@
       </c>
       <c r="F37" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G37" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H37" s="18" t="n"/>
       <c r="I37" s="122" t="n">
@@ -7803,11 +7813,11 @@
       </c>
       <c r="F38" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G38" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H38" s="18" t="n"/>
       <c r="I38" s="122" t="n">
@@ -7952,11 +7962,11 @@
       </c>
       <c r="F39" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G39" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H39" s="17" t="n"/>
       <c r="I39" s="122" t="n">
@@ -8099,11 +8109,11 @@
       </c>
       <c r="F40" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G40" s="10" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H40" s="18" t="n"/>
       <c r="I40" s="122" t="n">
@@ -8397,11 +8407,11 @@
       </c>
       <c r="F42" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G42" s="10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H42" s="17" t="n"/>
       <c r="I42" s="122" t="n">
@@ -8856,11 +8866,11 @@
       </c>
       <c r="F45" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G45" s="10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H45" s="17" t="n"/>
       <c r="I45" s="122" t="n">
@@ -9005,11 +9015,11 @@
       </c>
       <c r="F46" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G46" s="10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H46" s="18" t="n"/>
       <c r="I46" s="122" t="n">
@@ -9154,11 +9164,11 @@
       </c>
       <c r="F47" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G47" s="10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H47" s="18" t="n"/>
       <c r="I47" s="122" t="n">
@@ -9613,11 +9623,11 @@
       </c>
       <c r="F50" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G50" s="10" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" s="18" t="n"/>
       <c r="I50" s="122" t="n">
@@ -9768,11 +9778,11 @@
       </c>
       <c r="F51" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G51" s="10" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" s="18" t="n"/>
       <c r="I51" s="122" t="n">
@@ -10071,11 +10081,11 @@
       </c>
       <c r="F53" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G53" s="10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H53" s="18" t="n"/>
       <c r="I53" s="122" t="n">
@@ -10369,11 +10379,11 @@
       </c>
       <c r="F55" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G55" s="10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H55" s="17" t="n"/>
       <c r="I55" s="122" t="n">
@@ -10518,11 +10528,11 @@
       </c>
       <c r="F56" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G56" s="10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H56" s="18" t="n"/>
       <c r="I56" s="122" t="n">
@@ -11266,11 +11276,11 @@
       </c>
       <c r="F61" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G61" s="10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H61" s="18" t="n"/>
       <c r="I61" s="122" t="n">
@@ -11413,11 +11423,11 @@
       </c>
       <c r="F62" s="11" t="inlineStr">
         <is>
-          <t>2024-11-17</t>
+          <t>2024-11-18</t>
         </is>
       </c>
       <c r="G62" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" s="17" t="n"/>
       <c r="I62" s="122" t="n">
@@ -11538,37 +11548,131 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="5" t="n"/>
-      <c r="C63" s="11" t="n"/>
-      <c r="D63" s="10" t="n"/>
-      <c r="E63" s="10" t="n"/>
-      <c r="F63" s="11" t="n"/>
-      <c r="G63" s="10" t="n"/>
-      <c r="H63" s="18" t="n"/>
-      <c r="I63" s="122" t="n"/>
-      <c r="J63" s="8" t="n"/>
-      <c r="K63" s="6" t="n"/>
-      <c r="L63" s="6" t="n"/>
-      <c r="M63" s="9" t="n"/>
-      <c r="N63" s="9" t="n"/>
-      <c r="O63" s="6" t="n"/>
-      <c r="P63" s="6" t="n"/>
-      <c r="Q63" s="9" t="n"/>
-      <c r="R63" s="9" t="n"/>
-      <c r="S63" s="6" t="n"/>
-      <c r="T63" s="6" t="n"/>
-      <c r="U63" s="9" t="n"/>
-      <c r="V63" s="9" t="n"/>
-      <c r="W63" s="6" t="n"/>
-      <c r="X63" s="6" t="n"/>
-      <c r="Y63" s="6" t="n"/>
-      <c r="Z63" s="6" t="n"/>
-      <c r="AA63" s="6" t="n"/>
-      <c r="AB63" s="6" t="n"/>
-      <c r="AC63" s="13" t="n"/>
-      <c r="AD63" s="18" t="n"/>
-      <c r="AE63" s="12" t="n"/>
-      <c r="AF63" s="12" t="n"/>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Actiu</t>
+        </is>
+      </c>
+      <c r="C63" s="11" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="D63" s="10" t="inlineStr">
+        <is>
+          <t>Finques SIP</t>
+        </is>
+      </c>
+      <c r="E63" s="10" t="inlineStr">
+        <is>
+          <t>09565</t>
+        </is>
+      </c>
+      <c r="F63" s="11" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="G63" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="18" t="inlineStr"/>
+      <c r="I63" s="122" t="n">
+        <v>325000</v>
+      </c>
+      <c r="J63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="6" t="inlineStr">
+        <is>
+          <t>Piso</t>
+        </is>
+      </c>
+      <c r="L63" s="6" t="inlineStr">
+        <is>
+          <t>Entrar a vivir</t>
+        </is>
+      </c>
+      <c r="M63" s="9" t="n">
+        <v>2005</v>
+      </c>
+      <c r="N63" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="O63" s="6" t="inlineStr">
+        <is>
+          <t>Vilafranca del Penedes</t>
+        </is>
+      </c>
+      <c r="P63" s="6" t="inlineStr">
+        <is>
+          <t>La Girada</t>
+        </is>
+      </c>
+      <c r="Q63" s="9" t="n">
+        <v>168</v>
+      </c>
+      <c r="R63" s="9" t="n">
+        <v>115</v>
+      </c>
+      <c r="S63" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" s="6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U63" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W63" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X63" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y63" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z63" s="6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AA63" s="6" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB63" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC63" s="13" t="inlineStr">
+        <is>
+          <t>https://www.finquessip.com/ficha/piso/vilafranca-del-penedes/la-girada/9669/19323799/es/</t>
+        </is>
+      </c>
+      <c r="AD63" s="18" t="inlineStr"/>
+      <c r="AE63" s="12" t="n">
+        <v>1934.52380952381</v>
+      </c>
+      <c r="AF63" s="12" t="n">
+        <v>1766.688410524027</v>
+      </c>
       <c r="AH63" s="12">
         <f>IF(P63="","",AVERAGEIF($P$6:$P$503, P63, $AE$6:$AE$503))</f>
         <v/>
@@ -11618,7 +11722,11 @@
       <c r="Z64" s="6" t="n"/>
       <c r="AA64" s="6" t="n"/>
       <c r="AB64" s="6" t="n"/>
-      <c r="AC64" s="13" t="n"/>
+      <c r="AC64" s="124" t="inlineStr">
+        <is>
+          <t>Aqui</t>
+        </is>
+      </c>
       <c r="AD64" s="18" t="n"/>
       <c r="AE64" s="12" t="n"/>
       <c r="AF64" s="12" t="n"/>
@@ -34913,9 +35021,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>
@@ -35813,6 +35921,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC60" r:id="rId55"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC61" r:id="rId56"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC62" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC64" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35022,8 +35022,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35021,8 +35021,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35021,9 +35021,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35024,9 +35024,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35025,8 +35025,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35024,8 +35024,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35129,8 +35129,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35129,9 +35129,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35130,8 +35130,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35415,9 +35415,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35416,8 +35416,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35415,8 +35415,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3309,11 +3309,11 @@
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" s="18" t="n"/>
       <c r="I8" s="123" t="n">
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10079,7 +10079,7 @@
     <row r="53">
       <c r="B53" s="6" t="inlineStr">
         <is>
-          <t>Actiu</t>
+          <t>Venut</t>
         </is>
       </c>
       <c r="C53" s="12" t="inlineStr">
@@ -10099,11 +10099,11 @@
       </c>
       <c r="F53" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G53" s="11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H53" s="19" t="n"/>
       <c r="I53" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12031,11 +12031,11 @@
       </c>
       <c r="F66" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G66" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" s="19" t="inlineStr"/>
       <c r="I66" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-11-24</t>
+          <t>2024-11-25</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -35415,8 +35415,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -10991,7 +10991,7 @@
       </c>
       <c r="E59" s="11" t="inlineStr">
         <is>
-          <t>10004</t>
+          <t>10004_1</t>
         </is>
       </c>
       <c r="F59" s="12" t="inlineStr">
@@ -12305,37 +12305,131 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="12" t="n"/>
-      <c r="D68" s="11" t="n"/>
-      <c r="E68" s="11" t="n"/>
-      <c r="F68" s="12" t="n"/>
-      <c r="G68" s="11" t="n"/>
-      <c r="H68" s="18" t="n"/>
-      <c r="I68" s="123" t="n"/>
-      <c r="J68" s="9" t="n"/>
-      <c r="K68" s="7" t="n"/>
-      <c r="L68" s="7" t="n"/>
-      <c r="M68" s="10" t="n"/>
-      <c r="N68" s="10" t="n"/>
-      <c r="O68" s="7" t="n"/>
-      <c r="P68" s="7" t="n"/>
-      <c r="Q68" s="10" t="n"/>
-      <c r="R68" s="10" t="n"/>
-      <c r="S68" s="7" t="n"/>
-      <c r="T68" s="7" t="n"/>
-      <c r="U68" s="10" t="n"/>
-      <c r="V68" s="10" t="n"/>
-      <c r="W68" s="7" t="n"/>
-      <c r="X68" s="7" t="n"/>
-      <c r="Y68" s="7" t="n"/>
-      <c r="Z68" s="7" t="n"/>
-      <c r="AA68" s="7" t="n"/>
-      <c r="AB68" s="7" t="n"/>
-      <c r="AC68" s="14" t="n"/>
-      <c r="AD68" s="18" t="n"/>
-      <c r="AE68" s="13" t="n"/>
-      <c r="AF68" s="13" t="n"/>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>Actiu</t>
+        </is>
+      </c>
+      <c r="C68" s="12" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="D68" s="11" t="inlineStr">
+        <is>
+          <t>Finques SIP</t>
+        </is>
+      </c>
+      <c r="E68" s="11" t="inlineStr">
+        <is>
+          <t>10004</t>
+        </is>
+      </c>
+      <c r="F68" s="12" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="G68" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="18" t="inlineStr"/>
+      <c r="I68" s="123" t="n">
+        <v>276000</v>
+      </c>
+      <c r="J68" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K68" s="7" t="inlineStr">
+        <is>
+          <t>Piso</t>
+        </is>
+      </c>
+      <c r="L68" s="7" t="inlineStr">
+        <is>
+          <t>Nuevo</t>
+        </is>
+      </c>
+      <c r="M68" s="10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="N68" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7" t="inlineStr">
+        <is>
+          <t>Vilafranca del Penedes</t>
+        </is>
+      </c>
+      <c r="P68" s="7" t="inlineStr">
+        <is>
+          <t>Poble nou</t>
+        </is>
+      </c>
+      <c r="Q68" s="10" t="n">
+        <v>115</v>
+      </c>
+      <c r="R68" s="10" t="n">
+        <v>96</v>
+      </c>
+      <c r="S68" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U68" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X68" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y68" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z68" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA68" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB68" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC68" s="125" t="inlineStr">
+        <is>
+          <t>Aqui</t>
+        </is>
+      </c>
+      <c r="AD68" s="18" t="inlineStr"/>
+      <c r="AE68" s="13" t="n">
+        <v>2400</v>
+      </c>
+      <c r="AF68" s="13" t="n">
+        <v>2400</v>
+      </c>
       <c r="AH68" s="13">
         <f>IF(P68="","",AVERAGEIF($P$6:$P$503, P68, $AE$6:$AE$503))</f>
         <v/>
@@ -35415,9 +35509,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>
@@ -36325,6 +36419,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC65" r:id="rId60"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC66" r:id="rId61"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC67" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC68" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35510,8 +35510,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35509,9 +35509,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35509,8 +35509,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3309,11 +3309,11 @@
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="18" t="n"/>
       <c r="I8" s="123" t="n">
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12031,11 +12031,11 @@
       </c>
       <c r="F66" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G66" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H66" s="19" t="inlineStr"/>
       <c r="I66" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-11-29</t>
+          <t>2024-11-30</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -35509,8 +35509,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3309,11 +3309,11 @@
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" s="18" t="n"/>
       <c r="I8" s="123" t="n">
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12031,11 +12031,11 @@
       </c>
       <c r="F66" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G66" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H66" s="19" t="inlineStr"/>
       <c r="I66" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-11-30</t>
+          <t>2024-12-01</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -35509,9 +35509,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35615,8 +35615,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35615,9 +35615,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -35616,8 +35616,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3309,11 +3309,11 @@
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="18" t="n"/>
       <c r="I8" s="123" t="n">
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12031,11 +12031,11 @@
       </c>
       <c r="F66" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G66" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H66" s="19" t="inlineStr"/>
       <c r="I66" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12474,11 +12474,11 @@
       </c>
       <c r="F69" s="12" t="inlineStr">
         <is>
-          <t>2024-12-03</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="G69" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" s="19" t="inlineStr"/>
       <c r="I69" s="123" t="n">
@@ -35615,8 +35615,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3309,11 +3309,11 @@
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" s="18" t="n"/>
       <c r="I8" s="123" t="n">
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12031,11 +12031,11 @@
       </c>
       <c r="F66" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G66" s="11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" s="19" t="inlineStr"/>
       <c r="I66" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12474,11 +12474,11 @@
       </c>
       <c r="F69" s="12" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-12-06</t>
         </is>
       </c>
       <c r="G69" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" s="19" t="inlineStr"/>
       <c r="I69" s="123" t="n">
@@ -35615,8 +35615,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3309,11 +3309,11 @@
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H8" s="18" t="n"/>
       <c r="I8" s="123" t="n">
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12031,11 +12031,11 @@
       </c>
       <c r="F66" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G66" s="11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H66" s="19" t="inlineStr"/>
       <c r="I66" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12474,11 +12474,11 @@
       </c>
       <c r="F69" s="12" t="inlineStr">
         <is>
-          <t>2024-12-07</t>
+          <t>2024-12-08</t>
         </is>
       </c>
       <c r="G69" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H69" s="19" t="inlineStr"/>
       <c r="I69" s="123" t="n">
@@ -35616,8 +35616,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3309,11 +3309,11 @@
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" s="18" t="n"/>
       <c r="I8" s="123" t="n">
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2024-12-16</t>
+          <t>2024-12-17</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12919,37 +12919,139 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="6" t="n"/>
-      <c r="C72" s="12" t="n"/>
-      <c r="D72" s="11" t="n"/>
-      <c r="E72" s="11" t="n"/>
-      <c r="F72" s="12" t="n"/>
-      <c r="G72" s="11" t="n"/>
-      <c r="H72" s="19" t="n"/>
-      <c r="I72" s="123" t="n"/>
-      <c r="J72" s="9" t="n"/>
-      <c r="K72" s="7" t="n"/>
-      <c r="L72" s="7" t="n"/>
-      <c r="M72" s="10" t="n"/>
-      <c r="N72" s="10" t="n"/>
-      <c r="O72" s="7" t="n"/>
-      <c r="P72" s="7" t="n"/>
-      <c r="Q72" s="10" t="n"/>
-      <c r="R72" s="10" t="n"/>
-      <c r="S72" s="7" t="n"/>
-      <c r="T72" s="7" t="n"/>
-      <c r="U72" s="10" t="n"/>
-      <c r="V72" s="10" t="n"/>
-      <c r="W72" s="7" t="n"/>
-      <c r="X72" s="7" t="n"/>
-      <c r="Y72" s="7" t="n"/>
-      <c r="Z72" s="7" t="n"/>
-      <c r="AA72" s="7" t="n"/>
-      <c r="AB72" s="7" t="n"/>
-      <c r="AC72" s="14" t="n"/>
-      <c r="AD72" s="19" t="n"/>
-      <c r="AE72" s="13" t="n"/>
-      <c r="AF72" s="13" t="n"/>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>Actiu</t>
+        </is>
+      </c>
+      <c r="C72" s="12" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="D72" s="11" t="inlineStr">
+        <is>
+          <t>Finques SIP</t>
+        </is>
+      </c>
+      <c r="E72" s="11" t="inlineStr">
+        <is>
+          <t>10028</t>
+        </is>
+      </c>
+      <c r="F72" s="12" t="inlineStr">
+        <is>
+          <t>2024-12-17</t>
+        </is>
+      </c>
+      <c r="G72" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="19" t="inlineStr"/>
+      <c r="I72" s="123" t="n">
+        <v>900</v>
+      </c>
+      <c r="J72" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K72" s="7" t="inlineStr">
+        <is>
+          <t>Piso</t>
+        </is>
+      </c>
+      <c r="L72" s="7" t="inlineStr">
+        <is>
+          <t>Ninguno</t>
+        </is>
+      </c>
+      <c r="M72" s="10" t="n">
+        <v>1990</v>
+      </c>
+      <c r="N72" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="O72" s="7" t="inlineStr">
+        <is>
+          <t>Vilafranca del Penedes</t>
+        </is>
+      </c>
+      <c r="P72" s="7" t="inlineStr">
+        <is>
+          <t>Vilafranca del Penedès</t>
+        </is>
+      </c>
+      <c r="Q72" s="10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R72" s="10" t="n">
+        <v>99</v>
+      </c>
+      <c r="S72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T72" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U72" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X72" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y72" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z72" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA72" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB72" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AC72" s="125" t="inlineStr">
+        <is>
+          <t>Aqui</t>
+        </is>
+      </c>
+      <c r="AD72" s="19" t="inlineStr"/>
+      <c r="AE72" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF72" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="AH72" s="13">
         <f>IF(P72="","",AVERAGEIF($P$6:$P$503, P72, $AE$6:$AE$503))</f>
         <v/>
@@ -35817,9 +35919,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>
@@ -36731,6 +36833,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC69" r:id="rId64"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC70" r:id="rId65"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC71" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC72" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2024-12-21</t>
+          <t>2024-12-22</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -36109,8 +36109,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -36109,9 +36109,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2024-12-23</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -36110,8 +36110,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2024-12-24</t>
+          <t>2024-12-25</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -36109,8 +36109,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>2024-12-27</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -36110,8 +36110,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2024-12-27</t>
+          <t>2024-12-28</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -36109,8 +36109,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2024-12-28</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -36109,9 +36109,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -4946,11 +4946,11 @@
       </c>
       <c r="F19" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H19" s="19" t="n"/>
       <c r="I19" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13392,11 +13392,11 @@
       </c>
       <c r="F75" s="12" t="inlineStr">
         <is>
-          <t>2025-01-03</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="G75" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" s="19" t="inlineStr"/>
       <c r="I75" s="123" t="n">
@@ -36203,9 +36203,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="F77" s="12" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="G77" s="11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="18" t="inlineStr"/>
       <c r="I77" s="123" t="n">
@@ -36404,8 +36404,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11735,11 +11735,11 @@
       </c>
       <c r="F64" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G64" s="11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H64" s="19" t="inlineStr"/>
       <c r="I64" s="123" t="n">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="F77" s="12" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-01-11</t>
         </is>
       </c>
       <c r="G77" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H77" s="18" t="inlineStr"/>
       <c r="I77" s="123" t="n">
@@ -36404,8 +36404,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4477,7 +4477,7 @@
     <row r="16">
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>Actiu</t>
+          <t>Venut</t>
         </is>
       </c>
       <c r="C16" s="12" t="inlineStr">
@@ -4497,11 +4497,11 @@
       </c>
       <c r="F16" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H16" s="19" t="n"/>
       <c r="I16" s="123" t="n">
@@ -4630,7 +4630,7 @@
     <row r="17">
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>Actiu</t>
+          <t>Venut</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="F17" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="19" t="n"/>
       <c r="I17" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -11862,7 +11862,7 @@
     <row r="65">
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>Actiu</t>
+          <t>Venut</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
@@ -11882,11 +11882,11 @@
       </c>
       <c r="F65" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G65" s="11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H65" s="18" t="inlineStr"/>
       <c r="I65" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="F77" s="12" t="inlineStr">
         <is>
-          <t>2025-01-13</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="G77" s="11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H77" s="18" t="inlineStr"/>
       <c r="I77" s="123" t="n">
@@ -13823,37 +13823,131 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="6" t="n"/>
-      <c r="C78" s="12" t="n"/>
-      <c r="D78" s="11" t="n"/>
-      <c r="E78" s="11" t="n"/>
-      <c r="F78" s="12" t="n"/>
-      <c r="G78" s="11" t="n"/>
-      <c r="H78" s="19" t="n"/>
-      <c r="I78" s="123" t="n"/>
-      <c r="J78" s="9" t="n"/>
-      <c r="K78" s="7" t="n"/>
-      <c r="L78" s="7" t="n"/>
-      <c r="M78" s="10" t="n"/>
-      <c r="N78" s="10" t="n"/>
-      <c r="O78" s="7" t="n"/>
-      <c r="P78" s="7" t="n"/>
-      <c r="Q78" s="10" t="n"/>
-      <c r="R78" s="10" t="n"/>
-      <c r="S78" s="7" t="n"/>
-      <c r="T78" s="7" t="n"/>
-      <c r="U78" s="10" t="n"/>
-      <c r="V78" s="10" t="n"/>
-      <c r="W78" s="7" t="n"/>
-      <c r="X78" s="7" t="n"/>
-      <c r="Y78" s="7" t="n"/>
-      <c r="Z78" s="7" t="n"/>
-      <c r="AA78" s="7" t="n"/>
-      <c r="AB78" s="7" t="n"/>
-      <c r="AC78" s="14" t="n"/>
-      <c r="AD78" s="19" t="n"/>
-      <c r="AE78" s="13" t="n"/>
-      <c r="AF78" s="13" t="n"/>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>Actiu</t>
+        </is>
+      </c>
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="D78" s="11" t="inlineStr">
+        <is>
+          <t>Finques SIP</t>
+        </is>
+      </c>
+      <c r="E78" s="11" t="inlineStr">
+        <is>
+          <t>10039</t>
+        </is>
+      </c>
+      <c r="F78" s="12" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="G78" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="19" t="inlineStr"/>
+      <c r="I78" s="123" t="n">
+        <v>650</v>
+      </c>
+      <c r="J78" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K78" s="7" t="inlineStr">
+        <is>
+          <t>Piso</t>
+        </is>
+      </c>
+      <c r="L78" s="7" t="inlineStr">
+        <is>
+          <t>Buen estado</t>
+        </is>
+      </c>
+      <c r="M78" s="10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="N78" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="O78" s="7" t="inlineStr">
+        <is>
+          <t>Vilafranca del Penedes</t>
+        </is>
+      </c>
+      <c r="P78" s="7" t="inlineStr">
+        <is>
+          <t>Sant Julià</t>
+        </is>
+      </c>
+      <c r="Q78" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="R78" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="S78" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U78" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X78" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y78" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z78" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA78" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AB78" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC78" s="125" t="inlineStr">
+        <is>
+          <t>Aqui</t>
+        </is>
+      </c>
+      <c r="AD78" s="19" t="inlineStr"/>
+      <c r="AE78" s="13" t="n">
+        <v>11.20689655172414</v>
+      </c>
+      <c r="AF78" s="13" t="n">
+        <v>10.23460872303574</v>
+      </c>
       <c r="AH78" s="13">
         <f>IF(P78="","",AVERAGEIF($P$6:$P$503, P78, $AE$6:$AE$503))</f>
         <v/>
@@ -36404,8 +36498,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>
@@ -37323,6 +37417,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC75" r:id="rId70"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC76" r:id="rId71"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC77" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC78" r:id="rId73"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="F77" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G77" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H77" s="18" t="inlineStr"/>
       <c r="I77" s="123" t="n">
@@ -13825,7 +13825,7 @@
     <row r="78">
       <c r="B78" s="6" t="inlineStr">
         <is>
-          <t>Actiu</t>
+          <t>Venut</t>
         </is>
       </c>
       <c r="C78" s="12" t="inlineStr">
@@ -13845,11 +13845,11 @@
       </c>
       <c r="F78" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G78" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="19" t="inlineStr"/>
       <c r="I78" s="123" t="n">
@@ -13992,11 +13992,11 @@
       </c>
       <c r="F79" s="12" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="G79" s="11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="19" t="inlineStr"/>
       <c r="I79" s="123" t="n">
@@ -36597,9 +36597,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5542,11 +5542,11 @@
       </c>
       <c r="F23" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G23" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="123" t="n">
@@ -5697,11 +5697,11 @@
       </c>
       <c r="F24" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G24" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" s="18" t="n"/>
       <c r="I24" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -6307,11 +6307,11 @@
       </c>
       <c r="F28" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G28" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H28" s="19" t="n"/>
       <c r="I28" s="123" t="n">
@@ -6609,11 +6609,11 @@
       </c>
       <c r="F30" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G30" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H30" s="18" t="n"/>
       <c r="I30" s="123" t="n">
@@ -6764,11 +6764,11 @@
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G31" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H31" s="19" t="n"/>
       <c r="I31" s="123" t="n">
@@ -6919,11 +6919,11 @@
       </c>
       <c r="F32" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G32" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="19" t="n"/>
       <c r="I32" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -11588,11 +11588,11 @@
       </c>
       <c r="F63" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G63" s="11" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H63" s="19" t="n"/>
       <c r="I63" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="F77" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G77" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H77" s="18" t="inlineStr"/>
       <c r="I77" s="123" t="n">
@@ -13992,11 +13992,11 @@
       </c>
       <c r="F79" s="12" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="G79" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H79" s="19" t="inlineStr"/>
       <c r="I79" s="123" t="n">
@@ -36597,9 +36597,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="F77" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G77" s="11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H77" s="18" t="inlineStr"/>
       <c r="I77" s="123" t="n">
@@ -13992,11 +13992,11 @@
       </c>
       <c r="F79" s="12" t="inlineStr">
         <is>
-          <t>2025-01-23</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="G79" s="11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H79" s="19" t="inlineStr"/>
       <c r="I79" s="123" t="n">
@@ -36691,8 +36691,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -12921,7 +12921,7 @@
     <row r="72">
       <c r="B72" s="6" t="inlineStr">
         <is>
-          <t>Actiu</t>
+          <t>Venut</t>
         </is>
       </c>
       <c r="C72" s="12" t="inlineStr">
@@ -12941,11 +12941,11 @@
       </c>
       <c r="F72" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G72" s="11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H72" s="19" t="inlineStr"/>
       <c r="I72" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -13672,7 +13672,7 @@
     <row r="77">
       <c r="B77" s="6" t="inlineStr">
         <is>
-          <t>Actiu</t>
+          <t>Venut</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
@@ -13692,11 +13692,11 @@
       </c>
       <c r="F77" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G77" s="11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H77" s="18" t="inlineStr"/>
       <c r="I77" s="123" t="n">
@@ -13972,7 +13972,7 @@
     <row r="79">
       <c r="B79" s="6" t="inlineStr">
         <is>
-          <t>Actiu</t>
+          <t>Venut</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
@@ -13992,11 +13992,11 @@
       </c>
       <c r="F79" s="12" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-01-28</t>
         </is>
       </c>
       <c r="G79" s="11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" s="19" t="inlineStr"/>
       <c r="I79" s="123" t="n">
@@ -36691,9 +36691,9 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
     <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-28</t>
+          <t>2025-01-29</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -14270,37 +14270,131 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="6" t="n"/>
-      <c r="C81" s="12" t="n"/>
-      <c r="D81" s="11" t="n"/>
-      <c r="E81" s="11" t="n"/>
-      <c r="F81" s="12" t="n"/>
-      <c r="G81" s="11" t="n"/>
-      <c r="H81" s="19" t="n"/>
-      <c r="I81" s="123" t="n"/>
-      <c r="J81" s="9" t="n"/>
-      <c r="K81" s="7" t="n"/>
-      <c r="L81" s="7" t="n"/>
-      <c r="M81" s="10" t="n"/>
-      <c r="N81" s="10" t="n"/>
-      <c r="O81" s="7" t="n"/>
-      <c r="P81" s="7" t="n"/>
-      <c r="Q81" s="10" t="n"/>
-      <c r="R81" s="10" t="n"/>
-      <c r="S81" s="7" t="n"/>
-      <c r="T81" s="7" t="n"/>
-      <c r="U81" s="10" t="n"/>
-      <c r="V81" s="10" t="n"/>
-      <c r="W81" s="7" t="n"/>
-      <c r="X81" s="7" t="n"/>
-      <c r="Y81" s="7" t="n"/>
-      <c r="Z81" s="7" t="n"/>
-      <c r="AA81" s="7" t="n"/>
-      <c r="AB81" s="7" t="n"/>
-      <c r="AC81" s="14" t="n"/>
-      <c r="AD81" s="19" t="n"/>
-      <c r="AE81" s="13" t="n"/>
-      <c r="AF81" s="13" t="n"/>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>Actiu</t>
+        </is>
+      </c>
+      <c r="C81" s="12" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="D81" s="11" t="inlineStr">
+        <is>
+          <t>Finques SIP</t>
+        </is>
+      </c>
+      <c r="E81" s="11" t="inlineStr">
+        <is>
+          <t>10049</t>
+        </is>
+      </c>
+      <c r="F81" s="12" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="G81" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="19" t="inlineStr"/>
+      <c r="I81" s="123" t="n">
+        <v>240000</v>
+      </c>
+      <c r="J81" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K81" s="7" t="inlineStr">
+        <is>
+          <t>Piso</t>
+        </is>
+      </c>
+      <c r="L81" s="7" t="inlineStr">
+        <is>
+          <t>Buen estado</t>
+        </is>
+      </c>
+      <c r="M81" s="10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N81" s="10" t="n">
+        <v>225</v>
+      </c>
+      <c r="O81" s="7" t="inlineStr">
+        <is>
+          <t>Vilafranca del Penedes</t>
+        </is>
+      </c>
+      <c r="P81" s="7" t="inlineStr">
+        <is>
+          <t>Sant Julià</t>
+        </is>
+      </c>
+      <c r="Q81" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="R81" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="S81" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U81" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W81" s="7" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+      <c r="X81" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Y81" s="7" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Z81" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA81" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB81" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC81" s="125" t="inlineStr">
+        <is>
+          <t>Aqui</t>
+        </is>
+      </c>
+      <c r="AD81" s="19" t="inlineStr"/>
+      <c r="AE81" s="13" t="n">
+        <v>1142.857142857143</v>
+      </c>
+      <c r="AF81" s="13" t="n">
+        <v>537.8151260504202</v>
+      </c>
       <c r="AH81" s="13">
         <f>IF(P81="","",AVERAGEIF($P$6:$P$503, P81, $AE$6:$AE$503))</f>
         <v/>
@@ -36692,8 +36786,8 @@
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
     <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AJ2:AK2"/>
@@ -37614,6 +37708,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC78" r:id="rId73"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC79" r:id="rId74"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC80" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="AC81" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/New_home.xlsx
+++ b/New_home.xlsx
@@ -3756,11 +3756,11 @@
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H11" s="18" t="n"/>
       <c r="I11" s="123" t="n">
@@ -4197,11 +4197,11 @@
       </c>
       <c r="F14" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="123" t="n">
@@ -4799,11 +4799,11 @@
       </c>
       <c r="F18" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H18" s="18" t="n"/>
       <c r="I18" s="123" t="n">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="F20" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H20" s="19" t="n"/>
       <c r="I20" s="123" t="n">
@@ -5242,11 +5242,11 @@
       </c>
       <c r="F21" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H21" s="18" t="n"/>
       <c r="I21" s="123" t="n">
@@ -5395,11 +5395,11 @@
       </c>
       <c r="F22" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="123" t="n">
@@ -5852,11 +5852,11 @@
       </c>
       <c r="F25" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G25" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="19" t="n"/>
       <c r="I25" s="123" t="n">
@@ -6001,11 +6001,11 @@
       </c>
       <c r="F26" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G26" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H26" s="19" t="n"/>
       <c r="I26" s="123" t="n">
@@ -6154,11 +6154,11 @@
       </c>
       <c r="F27" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G27" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H27" s="18" t="n"/>
       <c r="I27" s="123" t="n">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="F36" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G36" s="60" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H36" s="18" t="n"/>
       <c r="I36" s="123" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="F37" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G37" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H37" s="19" t="n"/>
       <c r="I37" s="123" t="n">
@@ -7831,11 +7831,11 @@
       </c>
       <c r="F38" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G38" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H38" s="19" t="n"/>
       <c r="I38" s="123" t="n">
@@ -7980,11 +7980,11 @@
       </c>
       <c r="F39" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G39" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H39" s="18" t="n"/>
       <c r="I39" s="123" t="n">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="F40" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G40" s="11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H40" s="19" t="n"/>
       <c r="I40" s="123" t="n">
@@ -8425,11 +8425,11 @@
       </c>
       <c r="F42" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G42" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H42" s="18" t="n"/>
       <c r="I42" s="123" t="n">
@@ -8884,11 +8884,11 @@
       </c>
       <c r="F45" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G45" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H45" s="18" t="n"/>
       <c r="I45" s="123" t="n">
@@ -9033,11 +9033,11 @@
       </c>
       <c r="F46" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G46" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H46" s="19" t="n"/>
       <c r="I46" s="123" t="n">
@@ -9182,11 +9182,11 @@
       </c>
       <c r="F47" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G47" s="11" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H47" s="19" t="n"/>
       <c r="I47" s="123" t="n">
@@ -9641,11 +9641,11 @@
       </c>
       <c r="F50" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G50" s="11" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H50" s="19" t="n"/>
       <c r="I50" s="123" t="n">
@@ -9796,11 +9796,11 @@
       </c>
       <c r="F51" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G51" s="11" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H51" s="19" t="n"/>
       <c r="I51" s="123" t="n">
@@ -10397,11 +10397,11 @@
       </c>
       <c r="F55" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G55" s="11" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H55" s="18" t="n"/>
       <c r="I55" s="123" t="n">
@@ -10546,11 +10546,11 @@
       </c>
       <c r="F56" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G56" s="11" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H56" s="19" t="n"/>
       <c r="I56" s="123" t="n">
@@ -11294,11 +11294,11 @@
       </c>
       <c r="F61" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G61" s="11" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H61" s="19" t="n"/>
       <c r="I61" s="123" t="n">
@@ -11441,11 +11441,11 @@
       </c>
       <c r="F62" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G62" s="11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H62" s="18" t="n"/>
       <c r="I62" s="123" t="n">
@@ -12178,11 +12178,11 @@
       </c>
       <c r="F67" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G67" s="11" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H67" s="19" t="inlineStr"/>
       <c r="I67" s="123" t="n">
@@ -12327,11 +12327,11 @@
       </c>
       <c r="F68" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G68" s="11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H68" s="18" t="inlineStr"/>
       <c r="I68" s="123" t="n">
@@ -12633,11 +12633,11 @@
       </c>
       <c r="F70" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G70" s="11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H70" s="19" t="inlineStr"/>
       <c r="I70" s="123" t="n">
@@ -12792,11 +12792,11 @@
       </c>
       <c r="F71" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G71" s="11" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H71" s="18" t="inlineStr"/>
       <c r="I71" s="123" t="n">
@@ -13096,11 +13096,11 @@
       </c>
       <c r="F73" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G73" s="11" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H73" s="19" t="inlineStr"/>
       <c r="I73" s="123" t="n">
@@ -13245,11 +13245,11 @@
       </c>
       <c r="F74" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G74" s="11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H74" s="18" t="inlineStr"/>
       <c r="I74" s="123" t="n">
@@ -13539,11 +13539,11 @@
       </c>
       <c r="F76" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G76" s="11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H76" s="19" t="inlineStr"/>
       <c r="I76" s="123" t="n">
@@ -14292,11 +14292,11 @@
       </c>
       <c r="F81" s="12" t="inlineStr">
         <is>
-          <t>2025-01-29</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="G81" s="11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" s="19" t="inlineStr"/>
       <c r="I81" s="123" t="n">
@@ -36785,8 +36785,8 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C2:E3"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AH3:AI3"/>
     <mergeCell ref="F2:G3"/>
     <mergeCell ref="I2:J2"/>
